--- a/data/pca/factorExposure/factorExposure_2016-08-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.009960760329103155</v>
+        <v>-0.01376236775350749</v>
       </c>
       <c r="C2">
-        <v>0.05404376926193694</v>
+        <v>0.04355125886496405</v>
       </c>
       <c r="D2">
-        <v>-0.03684452731991571</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06558103412116394</v>
+      </c>
+      <c r="E2">
+        <v>0.05115631426642783</v>
+      </c>
+      <c r="F2">
+        <v>0.08121366129449328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.06342425984409157</v>
+        <v>-0.03082966061125866</v>
       </c>
       <c r="C3">
-        <v>0.09071874901391198</v>
+        <v>0.08220175994806633</v>
       </c>
       <c r="D3">
-        <v>-0.08065218516378851</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09100880556142199</v>
+      </c>
+      <c r="E3">
+        <v>0.05891185901143803</v>
+      </c>
+      <c r="F3">
+        <v>0.01277186289755497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06436781989038129</v>
+        <v>-0.0581834675577128</v>
       </c>
       <c r="C4">
-        <v>0.05791371291377872</v>
+        <v>0.06571295398961886</v>
       </c>
       <c r="D4">
-        <v>-0.02493518059555027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0591787779974093</v>
+      </c>
+      <c r="E4">
+        <v>0.04962819322958008</v>
+      </c>
+      <c r="F4">
+        <v>0.08855683700047105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04048605099194469</v>
+        <v>-0.03533324658584372</v>
       </c>
       <c r="C6">
-        <v>0.03265190437760138</v>
+        <v>0.03174456381885964</v>
       </c>
       <c r="D6">
-        <v>-0.03060612798694188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06864850852320996</v>
+      </c>
+      <c r="E6">
+        <v>0.05759753870221739</v>
+      </c>
+      <c r="F6">
+        <v>0.07107772505622034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02110994475621524</v>
+        <v>-0.01945281268663493</v>
       </c>
       <c r="C7">
-        <v>0.04085564055813421</v>
+        <v>0.03821003805475112</v>
       </c>
       <c r="D7">
-        <v>0.005053946830536196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03711420009637185</v>
+      </c>
+      <c r="E7">
+        <v>0.03128774132747474</v>
+      </c>
+      <c r="F7">
+        <v>0.1079944487040649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0001445686729168755</v>
+        <v>-0.003446628332461348</v>
       </c>
       <c r="C8">
-        <v>0.02582752155499298</v>
+        <v>0.02870558527051723</v>
       </c>
       <c r="D8">
-        <v>-0.03288903602106391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03600232313274628</v>
+      </c>
+      <c r="E8">
+        <v>0.04104471148249691</v>
+      </c>
+      <c r="F8">
+        <v>0.05032813415969108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03494368360507379</v>
+        <v>-0.03668522967337669</v>
       </c>
       <c r="C9">
-        <v>0.04373427355537941</v>
+        <v>0.05251455966774022</v>
       </c>
       <c r="D9">
-        <v>-0.0136123524457423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04481848160095046</v>
+      </c>
+      <c r="E9">
+        <v>0.04218302960761303</v>
+      </c>
+      <c r="F9">
+        <v>0.0920174228072158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06348508356950229</v>
+        <v>-0.09763777923247577</v>
       </c>
       <c r="C10">
-        <v>-0.1955047804101176</v>
+        <v>-0.195431091772247</v>
       </c>
       <c r="D10">
-        <v>-0.005269008271927797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0001263464163384925</v>
+      </c>
+      <c r="E10">
+        <v>0.04706874650578014</v>
+      </c>
+      <c r="F10">
+        <v>0.04035270220734961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.04074527059019666</v>
+        <v>-0.03651889312435799</v>
       </c>
       <c r="C11">
-        <v>0.05456863326053273</v>
+        <v>0.05132427864700223</v>
       </c>
       <c r="D11">
-        <v>-0.007835750833807525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03390817946335743</v>
+      </c>
+      <c r="E11">
+        <v>0.005234713762082523</v>
+      </c>
+      <c r="F11">
+        <v>0.06647956762742473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03737891404293049</v>
+        <v>-0.03749565658458637</v>
       </c>
       <c r="C12">
-        <v>0.04526388634332418</v>
+        <v>0.04699949256905165</v>
       </c>
       <c r="D12">
-        <v>-0.001727532452060769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02562717073141553</v>
+      </c>
+      <c r="E12">
+        <v>0.01429236188643943</v>
+      </c>
+      <c r="F12">
+        <v>0.06969495327097716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01456345559997058</v>
+        <v>-0.01233567537727887</v>
       </c>
       <c r="C13">
-        <v>0.04300124367853654</v>
+        <v>0.04247018753192792</v>
       </c>
       <c r="D13">
-        <v>-0.01842849444307538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06193642195482069</v>
+      </c>
+      <c r="E13">
+        <v>0.06098570649797415</v>
+      </c>
+      <c r="F13">
+        <v>0.1136527690378919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.007699798177516833</v>
+        <v>-0.005195628728201365</v>
       </c>
       <c r="C14">
-        <v>0.03374631723323895</v>
+        <v>0.03174938817825989</v>
       </c>
       <c r="D14">
-        <v>0.01405282645603541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0268152145398123</v>
+      </c>
+      <c r="E14">
+        <v>0.02662183296676829</v>
+      </c>
+      <c r="F14">
+        <v>0.09752217844746089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001219769636926862</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003331680625984569</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004486219239902467</v>
+      </c>
+      <c r="E15">
+        <v>-0.0002866939297866041</v>
+      </c>
+      <c r="F15">
+        <v>0.003042776027475434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03785191596189123</v>
+        <v>-0.03404401897994479</v>
       </c>
       <c r="C16">
-        <v>0.04203889676388185</v>
+        <v>0.0453800148702312</v>
       </c>
       <c r="D16">
-        <v>-0.00672658726913563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02840185475079293</v>
+      </c>
+      <c r="E16">
+        <v>0.01948432961987663</v>
+      </c>
+      <c r="F16">
+        <v>0.07062740062795417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02483756749173084</v>
+        <v>-0.01661788439027844</v>
       </c>
       <c r="C19">
-        <v>0.06029365525779929</v>
+        <v>0.05076107899636126</v>
       </c>
       <c r="D19">
-        <v>-0.07240588969821372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09595791313554612</v>
+      </c>
+      <c r="E19">
+        <v>0.07978243125021806</v>
+      </c>
+      <c r="F19">
+        <v>0.09167091559241457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01619476233866569</v>
+        <v>-0.0136523378697651</v>
       </c>
       <c r="C20">
-        <v>0.04410032189151859</v>
+        <v>0.04099757324395063</v>
       </c>
       <c r="D20">
-        <v>-0.01891750226218375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04065186805254043</v>
+      </c>
+      <c r="E20">
+        <v>0.05575816623361377</v>
+      </c>
+      <c r="F20">
+        <v>0.08933695989013375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01016673844137888</v>
+        <v>-0.009388002687290694</v>
       </c>
       <c r="C21">
-        <v>0.04614797389673657</v>
+        <v>0.04401708966981997</v>
       </c>
       <c r="D21">
-        <v>-0.03903080132511198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07075461445676672</v>
+      </c>
+      <c r="E21">
+        <v>0.0734180238068356</v>
+      </c>
+      <c r="F21">
+        <v>0.1339901395455688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001816829575831441</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02314875990265836</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03560236436718294</v>
+      </c>
+      <c r="E22">
+        <v>0.01854176153539024</v>
+      </c>
+      <c r="F22">
+        <v>0.02141828289976382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.00188516600708101</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02327199560865342</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03529429179260002</v>
+      </c>
+      <c r="E23">
+        <v>0.01882983092105934</v>
+      </c>
+      <c r="F23">
+        <v>0.0212958527524156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.03305121319468692</v>
+        <v>-0.03383511680986654</v>
       </c>
       <c r="C24">
-        <v>0.04720495866851567</v>
+        <v>0.05293323272637979</v>
       </c>
       <c r="D24">
-        <v>-0.004513796369995528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02705718616971833</v>
+      </c>
+      <c r="E24">
+        <v>0.01706987040070632</v>
+      </c>
+      <c r="F24">
+        <v>0.07911100470754867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04774485424239155</v>
+        <v>-0.04420839766345019</v>
       </c>
       <c r="C25">
-        <v>0.05675852131273332</v>
+        <v>0.05612381922357039</v>
       </c>
       <c r="D25">
-        <v>0.007127047251439257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02500212424597381</v>
+      </c>
+      <c r="E25">
+        <v>0.01123847982065524</v>
+      </c>
+      <c r="F25">
+        <v>0.08060178095006321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01470197493568682</v>
+        <v>-0.01395944021846486</v>
       </c>
       <c r="C26">
-        <v>0.01633923537206977</v>
+        <v>0.01645390043152404</v>
       </c>
       <c r="D26">
-        <v>-0.002024777804693493</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02663381474952972</v>
+      </c>
+      <c r="E26">
+        <v>0.02890380133164802</v>
+      </c>
+      <c r="F26">
+        <v>0.07470772113075423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.07546217000589257</v>
+        <v>-0.1316861910143655</v>
       </c>
       <c r="C28">
-        <v>-0.2294674897413944</v>
+        <v>-0.2454204599001208</v>
       </c>
       <c r="D28">
-        <v>0.0002849425373341175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01481290967709809</v>
+      </c>
+      <c r="E28">
+        <v>0.04797125091601724</v>
+      </c>
+      <c r="F28">
+        <v>0.05670348776365097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.009928194415894992</v>
+        <v>-0.006122798761494614</v>
       </c>
       <c r="C29">
-        <v>0.0267277368061513</v>
+        <v>0.02725571730821241</v>
       </c>
       <c r="D29">
-        <v>0.01572536731696932</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0216712991044508</v>
+      </c>
+      <c r="E29">
+        <v>0.02855764381543858</v>
+      </c>
+      <c r="F29">
+        <v>0.08942668925153606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05466474895049823</v>
+        <v>-0.04233157418081333</v>
       </c>
       <c r="C30">
-        <v>0.05672640671875732</v>
+        <v>0.06473744392368928</v>
       </c>
       <c r="D30">
-        <v>-0.05496088255125701</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1079338200941311</v>
+      </c>
+      <c r="E30">
+        <v>0.03997136579250469</v>
+      </c>
+      <c r="F30">
+        <v>0.1047509199283889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05243069205440268</v>
+        <v>-0.05512104699723655</v>
       </c>
       <c r="C31">
-        <v>0.03154689886294712</v>
+        <v>0.05378873166737852</v>
       </c>
       <c r="D31">
-        <v>0.01779325774077147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.009406630710521858</v>
+      </c>
+      <c r="E31">
+        <v>0.04903770228020542</v>
+      </c>
+      <c r="F31">
+        <v>0.08266612407348574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.00922379430818393</v>
+        <v>-0.004981544613858319</v>
       </c>
       <c r="C32">
-        <v>0.04337726256895424</v>
+        <v>0.0334974387374708</v>
       </c>
       <c r="D32">
-        <v>-0.02840264517139468</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05026202927236465</v>
+      </c>
+      <c r="E32">
+        <v>0.02287477128908368</v>
+      </c>
+      <c r="F32">
+        <v>0.07438286506040247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0286555458488056</v>
+        <v>-0.02454514613084251</v>
       </c>
       <c r="C33">
-        <v>0.05918542061109178</v>
+        <v>0.05507698259117329</v>
       </c>
       <c r="D33">
-        <v>-0.0353351942306326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08027681179393052</v>
+      </c>
+      <c r="E33">
+        <v>0.05007688109274194</v>
+      </c>
+      <c r="F33">
+        <v>0.1296573050266566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04704942426876044</v>
+        <v>-0.04165541489610913</v>
       </c>
       <c r="C34">
-        <v>0.05859535790087986</v>
+        <v>0.06336124607130772</v>
       </c>
       <c r="D34">
-        <v>0.001959166280360495</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03444511058346838</v>
+      </c>
+      <c r="E34">
+        <v>-0.007691959846522697</v>
+      </c>
+      <c r="F34">
+        <v>0.07699664416395918</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01037612713391809</v>
+        <v>-0.01297343145436008</v>
       </c>
       <c r="C36">
-        <v>0.01622864874364459</v>
+        <v>0.01240374455346129</v>
       </c>
       <c r="D36">
-        <v>-0.001555041930622188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02797477500173038</v>
+      </c>
+      <c r="E36">
+        <v>0.03436058381400755</v>
+      </c>
+      <c r="F36">
+        <v>0.08216163285133853</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02976269073883131</v>
+        <v>-0.02447423806255321</v>
       </c>
       <c r="C38">
-        <v>0.0269005105322522</v>
+        <v>0.02462289912301403</v>
       </c>
       <c r="D38">
-        <v>0.002308127604457426</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02626280503330795</v>
+      </c>
+      <c r="E38">
+        <v>0.03280567055327915</v>
+      </c>
+      <c r="F38">
+        <v>0.06918276597320407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04405241135919858</v>
+        <v>-0.03979672722878667</v>
       </c>
       <c r="C39">
-        <v>0.07022176494489857</v>
+        <v>0.06788310067169469</v>
       </c>
       <c r="D39">
-        <v>-0.0207746899303645</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05294485551811245</v>
+      </c>
+      <c r="E39">
+        <v>0.01846253960071014</v>
+      </c>
+      <c r="F39">
+        <v>0.09157089849310354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01529444528343226</v>
+        <v>-0.01563964619751343</v>
       </c>
       <c r="C40">
-        <v>0.03612853516219539</v>
+        <v>0.04058869230071751</v>
       </c>
       <c r="D40">
-        <v>-0.03207011658480551</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0386143474605709</v>
+      </c>
+      <c r="E40">
+        <v>0.06887684393770277</v>
+      </c>
+      <c r="F40">
+        <v>0.08807978958812125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.009095864592051342</v>
+        <v>-0.01758051365079105</v>
       </c>
       <c r="C41">
-        <v>0.007321465689992869</v>
+        <v>0.006356047701588499</v>
       </c>
       <c r="D41">
-        <v>0.001543415049510713</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01652315438100508</v>
+      </c>
+      <c r="E41">
+        <v>0.03839828394662208</v>
+      </c>
+      <c r="F41">
+        <v>0.0712071337670042</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001061721880986846</v>
+        <v>-0.0007039296547175206</v>
       </c>
       <c r="C42">
-        <v>0.006440311857546552</v>
+        <v>0.003479101378689369</v>
       </c>
       <c r="D42">
-        <v>-0.006133051083322324</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0005714039313333151</v>
+      </c>
+      <c r="E42">
+        <v>0.005698266393246933</v>
+      </c>
+      <c r="F42">
+        <v>-0.006063125951423003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03190935421466192</v>
+        <v>-0.02896895287033707</v>
       </c>
       <c r="C43">
-        <v>0.021122046249496</v>
+        <v>0.0212374635247097</v>
       </c>
       <c r="D43">
-        <v>-0.01265610375206107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03990137551061242</v>
+      </c>
+      <c r="E43">
+        <v>0.04382256411510171</v>
+      </c>
+      <c r="F43">
+        <v>0.08550200297856286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.02099764736761863</v>
+        <v>-0.01433308469642632</v>
       </c>
       <c r="C44">
-        <v>0.05705467110249941</v>
+        <v>0.052850089755634</v>
       </c>
       <c r="D44">
-        <v>-0.01329606361777755</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03989546180907025</v>
+      </c>
+      <c r="E44">
+        <v>0.05586971433579353</v>
+      </c>
+      <c r="F44">
+        <v>0.08981989681080199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.003196507902231713</v>
+        <v>-0.007652268550039237</v>
       </c>
       <c r="C46">
-        <v>0.02307525382905683</v>
+        <v>0.02525907663552076</v>
       </c>
       <c r="D46">
-        <v>0.01988515557521879</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01314476141275782</v>
+      </c>
+      <c r="E46">
+        <v>0.03429529362210083</v>
+      </c>
+      <c r="F46">
+        <v>0.1036074337810667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.08283729249040253</v>
+        <v>-0.08780158809662535</v>
       </c>
       <c r="C47">
-        <v>0.06671788085840337</v>
+        <v>0.07856944376978815</v>
       </c>
       <c r="D47">
-        <v>0.01476594389873987</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01667298616679611</v>
+      </c>
+      <c r="E47">
+        <v>0.05479171670150582</v>
+      </c>
+      <c r="F47">
+        <v>0.08014338951362932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01866658877131867</v>
+        <v>-0.01581883436544994</v>
       </c>
       <c r="C48">
-        <v>0.01244229996182411</v>
+        <v>0.01762128712120523</v>
       </c>
       <c r="D48">
-        <v>0.008931334199281193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0179753924288969</v>
+      </c>
+      <c r="E48">
+        <v>0.04536818845795285</v>
+      </c>
+      <c r="F48">
+        <v>0.0965628433531216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08646154895626433</v>
+        <v>-0.07161027073187358</v>
       </c>
       <c r="C50">
-        <v>0.0661433455914409</v>
+        <v>0.07069942830231443</v>
       </c>
       <c r="D50">
-        <v>0.02611696259679493</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.006068887567524924</v>
+      </c>
+      <c r="E50">
+        <v>0.0513086427739189</v>
+      </c>
+      <c r="F50">
+        <v>0.07359899606014421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01426819075471786</v>
+        <v>-0.0107413702003435</v>
       </c>
       <c r="C51">
-        <v>0.04842257163597949</v>
+        <v>0.0341699947068524</v>
       </c>
       <c r="D51">
-        <v>-0.013992862577626</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04867612978237377</v>
+      </c>
+      <c r="E51">
+        <v>0.02094550207354144</v>
+      </c>
+      <c r="F51">
+        <v>0.08334582616998794</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.0852872252971023</v>
+        <v>-0.09429034667225297</v>
       </c>
       <c r="C53">
-        <v>0.06605121985634045</v>
+        <v>0.08542145204814237</v>
       </c>
       <c r="D53">
-        <v>0.03256271412668865</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03879220088080178</v>
+      </c>
+      <c r="E53">
+        <v>0.05221322061247133</v>
+      </c>
+      <c r="F53">
+        <v>0.09046413538548524</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03377475450495652</v>
+        <v>-0.02815714122886029</v>
       </c>
       <c r="C54">
-        <v>0.02037012490825217</v>
+        <v>0.02671609520437322</v>
       </c>
       <c r="D54">
-        <v>-0.0008237882398760107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03185999822967663</v>
+      </c>
+      <c r="E54">
+        <v>0.04081782529108716</v>
+      </c>
+      <c r="F54">
+        <v>0.0966333931720767</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07689216990543533</v>
+        <v>-0.0852531961649505</v>
       </c>
       <c r="C55">
-        <v>0.05786871871796832</v>
+        <v>0.06956025465814238</v>
       </c>
       <c r="D55">
-        <v>0.03548020129326232</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04591243625597508</v>
+      </c>
+      <c r="E55">
+        <v>0.0435289449775278</v>
+      </c>
+      <c r="F55">
+        <v>0.06519088756938801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1526593944334194</v>
+        <v>-0.1469384973815262</v>
       </c>
       <c r="C56">
-        <v>0.08313161039174007</v>
+        <v>0.1033160419783258</v>
       </c>
       <c r="D56">
-        <v>0.04071190785967163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04900237117561804</v>
+      </c>
+      <c r="E56">
+        <v>0.04721079781243563</v>
+      </c>
+      <c r="F56">
+        <v>0.05095098754259074</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.001938513039496901</v>
+        <v>-0.0006978761066799117</v>
       </c>
       <c r="C57">
-        <v>0.001471810629248624</v>
+        <v>0.001047150822010278</v>
       </c>
       <c r="D57">
-        <v>-0.0188592630207568</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01669294246137163</v>
+      </c>
+      <c r="E57">
+        <v>0.007829414039630478</v>
+      </c>
+      <c r="F57">
+        <v>0.01118864667692422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07202607437149394</v>
+        <v>-0.02768609862888044</v>
       </c>
       <c r="C58">
-        <v>0.01719652401708367</v>
+        <v>0.04181837374255864</v>
       </c>
       <c r="D58">
-        <v>-0.9068505443626798</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4877333415002537</v>
+      </c>
+      <c r="E58">
+        <v>0.6921192683595074</v>
+      </c>
+      <c r="F58">
+        <v>-0.4526278427188954</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1258081305249991</v>
+        <v>-0.1435571853869818</v>
       </c>
       <c r="C59">
-        <v>-0.2079477607600657</v>
+        <v>-0.1878182244901676</v>
       </c>
       <c r="D59">
-        <v>-0.01657661209307927</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03203090822949201</v>
+      </c>
+      <c r="E59">
+        <v>0.02570465526458984</v>
+      </c>
+      <c r="F59">
+        <v>0.02232971182443342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3136407667916171</v>
+        <v>-0.2846873445317558</v>
       </c>
       <c r="C60">
-        <v>0.08170304762186888</v>
+        <v>0.09442474002417879</v>
       </c>
       <c r="D60">
-        <v>-0.03243677569709563</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2043679909304395</v>
+      </c>
+      <c r="E60">
+        <v>-0.2723738443320677</v>
+      </c>
+      <c r="F60">
+        <v>-0.1145410220586512</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.04328120595736241</v>
+        <v>-0.04115351413181474</v>
       </c>
       <c r="C61">
-        <v>0.06218529606622333</v>
+        <v>0.06151575354553348</v>
       </c>
       <c r="D61">
-        <v>-0.0116274770330722</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04597015277990179</v>
+      </c>
+      <c r="E61">
+        <v>0.0218822118351964</v>
+      </c>
+      <c r="F61">
+        <v>0.08276646756128338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01671095642923391</v>
+        <v>-0.01527837213329494</v>
       </c>
       <c r="C63">
-        <v>0.03561457839690274</v>
+        <v>0.03264130339164269</v>
       </c>
       <c r="D63">
-        <v>0.003282255905095281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0234158246088175</v>
+      </c>
+      <c r="E63">
+        <v>0.03715895423604385</v>
+      </c>
+      <c r="F63">
+        <v>0.07786259003050994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05377179135116709</v>
+        <v>-0.05590544009365456</v>
       </c>
       <c r="C64">
-        <v>0.035393001996405</v>
+        <v>0.05356301881817143</v>
       </c>
       <c r="D64">
-        <v>0.01021421911339125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006222614668916666</v>
+      </c>
+      <c r="E64">
+        <v>0.01961437178975552</v>
+      </c>
+      <c r="F64">
+        <v>0.08606746383531762</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09794644001158601</v>
+        <v>-0.06946575879357092</v>
       </c>
       <c r="C65">
-        <v>0.02295163939990069</v>
+        <v>0.03276915373455485</v>
       </c>
       <c r="D65">
-        <v>-0.04014626441083972</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08792076291256422</v>
+      </c>
+      <c r="E65">
+        <v>0.03066962064037524</v>
+      </c>
+      <c r="F65">
+        <v>0.01885403967247072</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06753011024286713</v>
+        <v>-0.05260832458131354</v>
       </c>
       <c r="C66">
-        <v>0.09985187206362338</v>
+        <v>0.09018024667816629</v>
       </c>
       <c r="D66">
-        <v>-0.03288506494266596</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08030472958200079</v>
+      </c>
+      <c r="E66">
+        <v>0.02097877261737213</v>
+      </c>
+      <c r="F66">
+        <v>0.09417807879667224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05177893553617133</v>
+        <v>-0.04669252669639264</v>
       </c>
       <c r="C67">
-        <v>0.03129000744154641</v>
+        <v>0.03015762583231852</v>
       </c>
       <c r="D67">
-        <v>0.008034366887768639</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01191582638672619</v>
+      </c>
+      <c r="E67">
+        <v>0.01588107060935562</v>
+      </c>
+      <c r="F67">
+        <v>0.05422111506511361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1026001135924568</v>
+        <v>-0.1477515598660634</v>
       </c>
       <c r="C68">
-        <v>-0.292905315302379</v>
+        <v>-0.25323871689504</v>
       </c>
       <c r="D68">
-        <v>0.002359589915382194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0170592027945188</v>
+      </c>
+      <c r="E68">
+        <v>0.04227298017208573</v>
+      </c>
+      <c r="F68">
+        <v>0.01872535862182113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08933810001092683</v>
+        <v>-0.0880808320876722</v>
       </c>
       <c r="C69">
-        <v>0.06448387830117082</v>
+        <v>0.08467195830852341</v>
       </c>
       <c r="D69">
-        <v>0.04071812158244664</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01206382947354541</v>
+      </c>
+      <c r="E69">
+        <v>0.03136115394010341</v>
+      </c>
+      <c r="F69">
+        <v>0.09689488742024202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1028071323829671</v>
+        <v>-0.1399734570818466</v>
       </c>
       <c r="C71">
-        <v>-0.2541853738201788</v>
+        <v>-0.2341615004305038</v>
       </c>
       <c r="D71">
-        <v>-0.02454777358756255</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01622868643480237</v>
+      </c>
+      <c r="E71">
+        <v>0.06209843155192295</v>
+      </c>
+      <c r="F71">
+        <v>0.05779655916144485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08901636092912749</v>
+        <v>-0.09716142622222519</v>
       </c>
       <c r="C72">
-        <v>0.04598946352586208</v>
+        <v>0.05520759428420385</v>
       </c>
       <c r="D72">
-        <v>0.008618640456283922</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02121078153564848</v>
+      </c>
+      <c r="E72">
+        <v>0.008993826396109805</v>
+      </c>
+      <c r="F72">
+        <v>0.08089624287544521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4433462761129712</v>
+        <v>-0.3477275778750987</v>
       </c>
       <c r="C73">
-        <v>0.0467844279556156</v>
+        <v>0.07424426462221637</v>
       </c>
       <c r="D73">
-        <v>-0.1435256743352883</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4335541718788452</v>
+      </c>
+      <c r="E73">
+        <v>-0.4826269950121345</v>
+      </c>
+      <c r="F73">
+        <v>-0.2927041971636551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1165510309941614</v>
+        <v>-0.1120696318571494</v>
       </c>
       <c r="C74">
-        <v>0.1003090756503081</v>
+        <v>0.09848580281225895</v>
       </c>
       <c r="D74">
-        <v>0.0136549163992226</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02926504440098807</v>
+      </c>
+      <c r="E74">
+        <v>0.06151541325566374</v>
+      </c>
+      <c r="F74">
+        <v>0.05609235856799256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2515361615409902</v>
+        <v>-0.2583554738508689</v>
       </c>
       <c r="C75">
-        <v>0.1001678190847036</v>
+        <v>0.13268629430702</v>
       </c>
       <c r="D75">
-        <v>0.06362985712190247</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1281562240876421</v>
+      </c>
+      <c r="E75">
+        <v>0.07391810348461457</v>
+      </c>
+      <c r="F75">
+        <v>0.01604728796038869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1180021431094427</v>
+        <v>-0.1296171785085329</v>
       </c>
       <c r="C76">
-        <v>0.08410022444990747</v>
+        <v>0.1001914857323319</v>
       </c>
       <c r="D76">
-        <v>0.03391191712205466</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.057801653319581</v>
+      </c>
+      <c r="E76">
+        <v>0.0663549165860691</v>
+      </c>
+      <c r="F76">
+        <v>0.07125283375969303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07878919322456561</v>
+        <v>-0.06267153159896278</v>
       </c>
       <c r="C77">
-        <v>0.05501567473293972</v>
+        <v>0.06870552558869999</v>
       </c>
       <c r="D77">
-        <v>-0.05199301054106902</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06446588693731359</v>
+      </c>
+      <c r="E77">
+        <v>0.06718216288639388</v>
+      </c>
+      <c r="F77">
+        <v>0.1187366314453981</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04847749789746664</v>
+        <v>-0.04415567352215835</v>
       </c>
       <c r="C78">
-        <v>0.04287689466146172</v>
+        <v>0.05517529144362419</v>
       </c>
       <c r="D78">
-        <v>-0.01758279360321884</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07167201772048387</v>
+      </c>
+      <c r="E78">
+        <v>0.02119165415326405</v>
+      </c>
+      <c r="F78">
+        <v>0.1039211010081422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02547656749567414</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0375721348693962</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05988933183055564</v>
+      </c>
+      <c r="E79">
+        <v>0.05244748160642863</v>
+      </c>
+      <c r="F79">
+        <v>0.0433858338141252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04813969790022146</v>
+        <v>-0.0350499823418605</v>
       </c>
       <c r="C80">
-        <v>0.05566043893665991</v>
+        <v>0.0551193053822784</v>
       </c>
       <c r="D80">
-        <v>-0.03051282799062843</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04640245670386114</v>
+      </c>
+      <c r="E80">
+        <v>0.009908700882823229</v>
+      </c>
+      <c r="F80">
+        <v>0.03658177081718218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.144220296364362</v>
+        <v>-0.1414652524082356</v>
       </c>
       <c r="C81">
-        <v>0.06428270350711944</v>
+        <v>0.0946902074878483</v>
       </c>
       <c r="D81">
-        <v>0.03664666965243094</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09602399982516591</v>
+      </c>
+      <c r="E81">
+        <v>0.0815308991431675</v>
+      </c>
+      <c r="F81">
+        <v>0.0215739782515697</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1474760194715339</v>
+        <v>-0.2014985333807739</v>
       </c>
       <c r="C82">
-        <v>0.04853080342709558</v>
+        <v>0.1334155981045984</v>
       </c>
       <c r="D82">
-        <v>0.1259795329356488</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2263882241251219</v>
+      </c>
+      <c r="E82">
+        <v>0.02000073824241372</v>
+      </c>
+      <c r="F82">
+        <v>0.08520628634237927</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.03097161809652976</v>
+        <v>-0.02793323347665688</v>
       </c>
       <c r="C83">
-        <v>0.02029469590664465</v>
+        <v>0.04002473891040322</v>
       </c>
       <c r="D83">
-        <v>-0.02432436905161062</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03503861694819717</v>
+      </c>
+      <c r="E83">
+        <v>0.009007715944137741</v>
+      </c>
+      <c r="F83">
+        <v>0.0498236533403953</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2289691238730977</v>
+        <v>-0.2056589871829298</v>
       </c>
       <c r="C85">
-        <v>0.09554427389133245</v>
+        <v>0.1190680329969381</v>
       </c>
       <c r="D85">
-        <v>0.1020148574926677</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1028817845011526</v>
+      </c>
+      <c r="E85">
+        <v>0.004442973825986476</v>
+      </c>
+      <c r="F85">
+        <v>-0.01767239390258883</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.01183737947062084</v>
+        <v>-0.0120112531185838</v>
       </c>
       <c r="C86">
-        <v>0.03146626053234121</v>
+        <v>0.03045828663992136</v>
       </c>
       <c r="D86">
-        <v>-0.03507152067162569</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07035878196033438</v>
+      </c>
+      <c r="E86">
+        <v>0.04194635441192143</v>
+      </c>
+      <c r="F86">
+        <v>0.1372021440923522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01864477694390986</v>
+        <v>-0.02122072658706683</v>
       </c>
       <c r="C87">
-        <v>0.01711327635874323</v>
+        <v>0.02166523344439589</v>
       </c>
       <c r="D87">
-        <v>-0.09155575747601787</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09280626965496566</v>
+      </c>
+      <c r="E87">
+        <v>0.08695062315086424</v>
+      </c>
+      <c r="F87">
+        <v>0.09516075703038673</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1086293233631456</v>
+        <v>-0.09195181033257686</v>
       </c>
       <c r="C88">
-        <v>0.06109084685796724</v>
+        <v>0.061948005358898</v>
       </c>
       <c r="D88">
-        <v>0.02050459610888926</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01115715114162453</v>
+      </c>
+      <c r="E88">
+        <v>0.03483841288101906</v>
+      </c>
+      <c r="F88">
+        <v>0.07359424266485423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1595096730095263</v>
+        <v>-0.2187834267240165</v>
       </c>
       <c r="C89">
-        <v>-0.3849302122658578</v>
+        <v>-0.3826790780460022</v>
       </c>
       <c r="D89">
-        <v>0.02647314990637292</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01205591210485037</v>
+      </c>
+      <c r="E89">
+        <v>0.03822871059497665</v>
+      </c>
+      <c r="F89">
+        <v>0.09600139454712733</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.157871767485654</v>
+        <v>-0.198073861708844</v>
       </c>
       <c r="C90">
-        <v>-0.35588968505845</v>
+        <v>-0.3175899093290448</v>
       </c>
       <c r="D90">
-        <v>0.0138299086711342</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01152137033439927</v>
+      </c>
+      <c r="E90">
+        <v>0.06744707084450546</v>
+      </c>
+      <c r="F90">
+        <v>0.04710343562845528</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.194065738095705</v>
+        <v>-0.1877556604180899</v>
       </c>
       <c r="C91">
-        <v>0.1050520169824083</v>
+        <v>0.1380866369720036</v>
       </c>
       <c r="D91">
-        <v>0.06427513355849342</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1059641114932036</v>
+      </c>
+      <c r="E91">
+        <v>0.06428890756351888</v>
+      </c>
+      <c r="F91">
+        <v>0.03692240791601165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1541399152667374</v>
+        <v>-0.1791069601913375</v>
       </c>
       <c r="C92">
-        <v>-0.3043433561769255</v>
+        <v>-0.2842334972154772</v>
       </c>
       <c r="D92">
-        <v>0.01279487015071075</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>4.323594300579415e-05</v>
+      </c>
+      <c r="E92">
+        <v>0.06939389435768561</v>
+      </c>
+      <c r="F92">
+        <v>0.0803716321846584</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1834847670119858</v>
+        <v>-0.2221965443441095</v>
       </c>
       <c r="C93">
-        <v>-0.348197096206959</v>
+        <v>-0.3217656350781355</v>
       </c>
       <c r="D93">
-        <v>0.008243683942250685</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.001720848868258098</v>
+      </c>
+      <c r="E93">
+        <v>0.05167389612133309</v>
+      </c>
+      <c r="F93">
+        <v>0.04395761079590938</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3279206934969693</v>
+        <v>-0.3450008894445968</v>
       </c>
       <c r="C94">
-        <v>0.139822527896598</v>
+        <v>0.1823846743417511</v>
       </c>
       <c r="D94">
-        <v>0.2353557204199919</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4743581338885888</v>
+      </c>
+      <c r="E94">
+        <v>0.15035272651344</v>
+      </c>
+      <c r="F94">
+        <v>-0.4448450984529945</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1042195431463788</v>
+        <v>-0.08615965558608146</v>
       </c>
       <c r="C95">
-        <v>0.08083230728435152</v>
+        <v>0.06579806475337543</v>
       </c>
       <c r="D95">
-        <v>-0.06573256801033067</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1594386323614732</v>
+      </c>
+      <c r="E95">
+        <v>-0.1240393640353714</v>
+      </c>
+      <c r="F95">
+        <v>0.1720907845097828</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1971531410458259</v>
+        <v>-0.1879464162827501</v>
       </c>
       <c r="C98">
-        <v>0.01524375068402821</v>
+        <v>0.04044941241769583</v>
       </c>
       <c r="D98">
-        <v>-0.06517352158093173</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1765495806890741</v>
+      </c>
+      <c r="E98">
+        <v>-0.1567047218609401</v>
+      </c>
+      <c r="F98">
+        <v>-0.04496610166536544</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.009839014856388495</v>
+        <v>-0.006168734240665789</v>
       </c>
       <c r="C101">
-        <v>0.02673342487306272</v>
+        <v>0.02700203011136358</v>
       </c>
       <c r="D101">
-        <v>0.01593743267426267</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02119013065732819</v>
+      </c>
+      <c r="E101">
+        <v>0.02927281751841758</v>
+      </c>
+      <c r="F101">
+        <v>0.08923878652680173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1251268018123659</v>
+        <v>-0.1253034842718146</v>
       </c>
       <c r="C102">
-        <v>0.06746373768425475</v>
+        <v>0.09875774945401626</v>
       </c>
       <c r="D102">
-        <v>0.03638181381092097</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05080574627251947</v>
+      </c>
+      <c r="E102">
+        <v>-0.007984559429187427</v>
+      </c>
+      <c r="F102">
+        <v>0.04004042004934204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
